--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H2">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>18146.13555886733</v>
+        <v>6256.337134103112</v>
       </c>
       <c r="R2">
-        <v>163315.2200298059</v>
+        <v>56307.034206928</v>
       </c>
       <c r="S2">
-        <v>0.09904512379068983</v>
+        <v>0.04220208910914387</v>
       </c>
       <c r="T2">
-        <v>0.09904512379068982</v>
+        <v>0.04220208910914387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H3">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>17146.37411255534</v>
+        <v>10896.48817391829</v>
       </c>
       <c r="R3">
-        <v>154317.3670129981</v>
+        <v>98068.39356526463</v>
       </c>
       <c r="S3">
-        <v>0.0935882321076151</v>
+        <v>0.07350220345156563</v>
       </c>
       <c r="T3">
-        <v>0.0935882321076151</v>
+        <v>0.07350220345156566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H4">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>20110.24323876245</v>
+        <v>13461.26710622716</v>
       </c>
       <c r="R4">
-        <v>180992.1891488621</v>
+        <v>121151.4039560445</v>
       </c>
       <c r="S4">
-        <v>0.1097656040638792</v>
+        <v>0.09080290619927182</v>
       </c>
       <c r="T4">
-        <v>0.1097656040638792</v>
+        <v>0.09080290619927184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J5">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>32490.49325796499</v>
+        <v>17626.98523059833</v>
       </c>
       <c r="R5">
-        <v>292414.4393216849</v>
+        <v>158642.8670753849</v>
       </c>
       <c r="S5">
-        <v>0.1773394074080522</v>
+        <v>0.1189027358152297</v>
       </c>
       <c r="T5">
-        <v>0.1773394074080522</v>
+        <v>0.1189027358152297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J6">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>30700.42933908834</v>
@@ -818,10 +818,10 @@
         <v>276303.8640517951</v>
       </c>
       <c r="S6">
-        <v>0.1675688917044071</v>
+        <v>0.2070895840306913</v>
       </c>
       <c r="T6">
-        <v>0.1675688917044071</v>
+        <v>0.2070895840306914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J7">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>36007.21047439545</v>
+        <v>37926.59368901181</v>
       </c>
       <c r="R7">
-        <v>324064.894269559</v>
+        <v>341339.3432011063</v>
       </c>
       <c r="S7">
-        <v>0.1965343313580167</v>
+        <v>0.255833637504163</v>
       </c>
       <c r="T7">
-        <v>0.1965343313580167</v>
+        <v>0.2558336375041631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H8">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>9370.639598166721</v>
+        <v>6412.65361904483</v>
       </c>
       <c r="R8">
-        <v>84335.75638350048</v>
+        <v>57713.88257140347</v>
       </c>
       <c r="S8">
-        <v>0.05114676653811438</v>
+        <v>0.0432565211330799</v>
       </c>
       <c r="T8">
-        <v>0.05114676653811438</v>
+        <v>0.04325652113307991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H9">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>8854.364153891562</v>
+        <v>11168.74024298779</v>
       </c>
       <c r="R9">
-        <v>79689.27738502405</v>
+        <v>100518.6621868901</v>
       </c>
       <c r="S9">
-        <v>0.04832883513214408</v>
+        <v>0.07533867834617933</v>
       </c>
       <c r="T9">
-        <v>0.04832883513214409</v>
+        <v>0.07533867834617936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H10">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>10384.90211927386</v>
+        <v>13797.60095649827</v>
       </c>
       <c r="R10">
-        <v>93464.1190734647</v>
+        <v>124178.4086084845</v>
       </c>
       <c r="S10">
-        <v>0.05668280789708149</v>
+        <v>0.09307164441067538</v>
       </c>
       <c r="T10">
-        <v>0.05668280789708149</v>
+        <v>0.09307164441067539</v>
       </c>
     </row>
   </sheetData>
